--- a/results/rankFD(2021-02-08)_2.xlsx
+++ b/results/rankFD(2021-02-08)_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrienpajon/Documents/all.nosync/git_repo/RESNA2021_vibration_analysis/Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrienpajon/Documents/all.nosync/git_repo/RESNA2021_vibration_analysis/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A23408-EEEC-6C40-9638-070D176065E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFFBE83-C89C-EE43-9715-BCA525CFA8B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="460" windowWidth="26520" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="148">
   <si>
     <t>a</t>
   </si>
@@ -542,6 +542,12 @@
   <si>
     <t>32mm</t>
   </si>
+  <si>
+    <t>MTiXsens signal energy in Torso along z-axis</t>
+  </si>
+  <si>
+    <t>MTiXsens signal energy in BackSeat along z-axis</t>
+  </si>
 </sst>
 </file>
 
@@ -913,7 +919,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>MTiXsens signal energy in Torso along x-y-axis</c:v>
+              <c:v>MTiXsens signal energy in BackSeat along z-axis</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1194,31 +1200,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.11749999999999999</c:v>
+                  <c:v>9.7500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.163888888888889</c:v>
+                  <c:v>0.230833333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25310185185185202</c:v>
+                  <c:v>0.30341049382716101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.100833333333333</c:v>
+                  <c:v>0.11555555555555599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25158179012345699</c:v>
+                  <c:v>0.17749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38179012345678998</c:v>
+                  <c:v>0.40043209876543201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4166666666666701E-2</c:v>
+                  <c:v>1.38888888888889E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1388888888888899E-2</c:v>
+                  <c:v>4.3055555555555597E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3611111111111099E-2</c:v>
+                  <c:v>7.7222222222222206E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1467,31 +1473,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.250771604938272</c:v>
+                  <c:v>0.21027777777777801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33101851851851899</c:v>
+                  <c:v>0.49836248285322399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36722222222222201</c:v>
+                  <c:v>0.61194444444444496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26641975308642002</c:v>
+                  <c:v>0.206666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45011574074074101</c:v>
+                  <c:v>0.44837962962963002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48308641975308603</c:v>
+                  <c:v>0.61305555555555602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17805555555555599</c:v>
+                  <c:v>0.25666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42543209876543198</c:v>
+                  <c:v>0.61972222222222195</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.73424382716049397</c:v>
+                  <c:v>0.60944444444444501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1740,31 +1746,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.57845679012345697</c:v>
+                  <c:v>0.44980709876543201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.787407407407407</c:v>
+                  <c:v>0.77277777777777801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63147376543209899</c:v>
+                  <c:v>0.80833333333333302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89070644718792902</c:v>
+                  <c:v>0.34081790123456801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49685185185185199</c:v>
+                  <c:v>0.85324074074074097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73907407407407399</c:v>
+                  <c:v>0.70972222222222203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73046296296296298</c:v>
+                  <c:v>0.32370370370370399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.695046296296296</c:v>
+                  <c:v>0.93984567901234595</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69126543209876501</c:v>
+                  <c:v>0.70345679012345697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,31 +2019,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.97996913580246903</c:v>
+                  <c:v>0.48292438271604998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75373799725651602</c:v>
+                  <c:v>0.93117283950617302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56655864197530903</c:v>
+                  <c:v>0.793950617283951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96327160493827202</c:v>
+                  <c:v>0.48558813443072701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69425925925925902</c:v>
+                  <c:v>0.86941358024691395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63541666666666696</c:v>
+                  <c:v>0.78950617283950597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92950617283950598</c:v>
+                  <c:v>0.42617283950617302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62445216049382701</c:v>
+                  <c:v>0.97447530864197596</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72785493827160497</c:v>
+                  <c:v>0.81117283950617303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4399,7 +4405,7 @@
   <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4415,19 +4421,19 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">INDIRECT("B"&amp;(ROW(A3)+A1-1))&amp;"!"</f>
-        <v>mtixsens_2_ES_horiz!</v>
+        <v>mtixsens_5_ES_vert!</v>
       </c>
       <c r="C1" s="8" t="str">
         <f ca="1">INDIRECT("C"&amp;(ROW(B3)+A1-1))&amp;"!"</f>
-        <v>MTiXsens signal energy in Torso along x-y-axis!</v>
+        <v>MTiXsens signal energy in BackSeat along z-axis!</v>
       </c>
       <c r="E1" t="str">
         <f ca="1">MID(C1,1,LEN(C1)-1)</f>
-        <v>MTiXsens signal energy in Torso along x-y-axis</v>
+        <v>MTiXsens signal energy in BackSeat along z-axis</v>
       </c>
       <c r="W1" t="s">
         <v>110</v>
@@ -4561,15 +4567,15 @@
       </c>
       <c r="F4" s="10" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W5)</f>
-        <v>1033.31148883942</v>
+        <v>1755.59664101048</v>
       </c>
       <c r="G4" s="10" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W5)</f>
-        <v>2.6229957454380401</v>
+        <v>2.7099070436705599</v>
       </c>
       <c r="H4" s="10" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W5)</f>
-        <v>133.98166442251301</v>
+        <v>98.341868393872403</v>
       </c>
       <c r="I4" s="11" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W5)</f>
@@ -4586,7 +4592,7 @@
       </c>
       <c r="N4" s="15" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC5)</f>
-        <v>0.11749999999999999</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="O4" s="4" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC5)</f>
@@ -4623,19 +4629,19 @@
       </c>
       <c r="F5" s="10" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W6)</f>
-        <v>9.7571885283944102</v>
+        <v>1271.0745622770301</v>
       </c>
       <c r="G5" s="10" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W6)</f>
-        <v>1.57920351111089</v>
+        <v>1.98122703036079</v>
       </c>
       <c r="H5" s="10" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W6)</f>
-        <v>133.98166442251301</v>
+        <v>98.341868393872502</v>
       </c>
       <c r="I5" s="11" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W6)</f>
-        <v>3.7574051961875E-4</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
         <v>1</v>
@@ -4648,7 +4654,7 @@
       </c>
       <c r="N5" s="15" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC8)</f>
-        <v>0.163888888888889</v>
+        <v>0.230833333333333</v>
       </c>
       <c r="O5" s="4" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC8)</f>
@@ -4660,11 +4666,11 @@
       <c r="R5" s="21"/>
       <c r="S5" s="15">
         <f ca="1">G42-G41</f>
-        <v>0.49910635407738635</v>
+        <v>-3.664800708951077E-2</v>
       </c>
       <c r="T5" s="15">
         <f ca="1">G43-G41</f>
-        <v>-0.22652117941995797</v>
+        <v>0.52500370863304902</v>
       </c>
       <c r="W5">
         <v>41</v>
@@ -4692,15 +4698,15 @@
       </c>
       <c r="F6" s="10" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W7)</f>
-        <v>81.236453519625499</v>
+        <v>91.348558431911002</v>
       </c>
       <c r="G6" s="10" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W7)</f>
-        <v>4.0987746919929098</v>
+        <v>4.7254344812353803</v>
       </c>
       <c r="H6" s="10" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W7)</f>
-        <v>133.98166442251301</v>
+        <v>98.341868393872403</v>
       </c>
       <c r="I6" s="11" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W7)</f>
@@ -4717,7 +4723,7 @@
       </c>
       <c r="N6" s="15" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC11)</f>
-        <v>0.25310185185185202</v>
+        <v>0.30341049382716101</v>
       </c>
       <c r="O6" s="4" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC11)</f>
@@ -4730,7 +4736,7 @@
       <c r="S6" s="21"/>
       <c r="T6" s="15">
         <f ca="1">G43-G42</f>
-        <v>-0.72562753349734432</v>
+        <v>0.56165171572255979</v>
       </c>
       <c r="W6">
         <v>42</v>
@@ -4773,19 +4779,19 @@
       </c>
       <c r="F7" s="10" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W8)</f>
-        <v>11.485666933992301</v>
+        <v>9.7361942969143804</v>
       </c>
       <c r="G7" s="10" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W8)</f>
-        <v>1.8934520063282401</v>
+        <v>1.9209783236067799</v>
       </c>
       <c r="H7" s="10" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W8)</f>
-        <v>133.98166442251301</v>
+        <v>98.341868393872502</v>
       </c>
       <c r="I7" s="11" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W8)</f>
-        <v>3.5943269031779599E-5</v>
+        <v>1.71528453046133E-4</v>
       </c>
       <c r="Q7" s="18" t="s">
         <v>86</v>
@@ -4836,19 +4842,19 @@
       </c>
       <c r="F8" s="10" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W9)</f>
-        <v>18.494422592057798</v>
+        <v>34.582115881188301</v>
       </c>
       <c r="G8" s="10" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W9)</f>
-        <v>4.8494117182583096</v>
+        <v>4.7142155362444402</v>
       </c>
       <c r="H8" s="10" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W9)</f>
-        <v>133.98166442251301</v>
+        <v>98.341868393872403</v>
       </c>
       <c r="I8" s="11" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W9)</f>
-        <v>1.12132525487141E-13</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>
@@ -4861,7 +4867,7 @@
       </c>
       <c r="N8" s="15" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC6)</f>
-        <v>0.100833333333333</v>
+        <v>0.11555555555555599</v>
       </c>
       <c r="O8" s="4" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC6)</f>
@@ -4910,19 +4916,19 @@
       </c>
       <c r="F9" s="10" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W10)</f>
-        <v>14.3247004338506</v>
+        <v>17.245601571866899</v>
       </c>
       <c r="G9" s="10" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W10)</f>
-        <v>2.95936398356258</v>
+        <v>3.5251970347612702</v>
       </c>
       <c r="H9" s="10" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W10)</f>
-        <v>133.98166442251301</v>
+        <v>98.341868393872403</v>
       </c>
       <c r="I9" s="11" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W10)</f>
-        <v>4.41909098203297E-8</v>
+        <v>5.5568971646380295E-10</v>
       </c>
       <c r="K9" s="4">
         <v>1</v>
@@ -4935,7 +4941,7 @@
       </c>
       <c r="N9" s="15" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC9)</f>
-        <v>0.25158179012345699</v>
+        <v>0.17749999999999999</v>
       </c>
       <c r="O9" s="4" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC9)</f>
@@ -4970,19 +4976,19 @@
       </c>
       <c r="F10" s="10" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W11)</f>
-        <v>17.823992851884501</v>
+        <v>9.4175008569928096</v>
       </c>
       <c r="G10" s="10" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W11)</f>
-        <v>7.4475276108155501</v>
+        <v>7.2335814478675999</v>
       </c>
       <c r="H10" s="10" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W11)</f>
-        <v>133.98166442251301</v>
+        <v>98.341868393872403</v>
       </c>
       <c r="I10" s="11" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W11)</f>
-        <v>0</v>
+        <v>4.6475925330469198E-9</v>
       </c>
       <c r="K10" s="4">
         <v>1</v>
@@ -4995,7 +5001,7 @@
       </c>
       <c r="N10" s="15" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC12)</f>
-        <v>0.38179012345678998</v>
+        <v>0.40043209876543201</v>
       </c>
       <c r="O10" s="4" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC12)</f>
@@ -5038,11 +5044,11 @@
       <c r="R11" s="21"/>
       <c r="S11" s="15" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDIRECT($W$2&amp;"C"&amp;(A1+1))</f>
-        <v>0.47622004675628288</v>
+        <v>0.50584453535943896</v>
       </c>
       <c r="T11" s="15" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDIRECT($W$2&amp;"G"&amp;(A1+1))</f>
-        <v>0.4983757062146893</v>
+        <v>0.51362994350282487</v>
       </c>
       <c r="W11">
         <v>47</v>
@@ -5063,7 +5069,9 @@
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="27" t="s">
+        <v>146</v>
+      </c>
       <c r="K12" s="4">
         <v>1</v>
       </c>
@@ -5075,7 +5083,7 @@
       </c>
       <c r="N12" s="15" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC7)</f>
-        <v>1.4166666666666701E-2</v>
+        <v>1.38888888888889E-2</v>
       </c>
       <c r="O12" s="4" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC7)</f>
@@ -5088,7 +5096,7 @@
       <c r="S12" s="21"/>
       <c r="T12" s="15" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDIRECT($W$2&amp;"K"&amp;(A1+1))</f>
-        <v>0.51566091954022997</v>
+        <v>0.51138649425287352</v>
       </c>
       <c r="AC12">
         <f t="shared" si="1"/>
@@ -5118,7 +5126,7 @@
       </c>
       <c r="N13" s="15" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC10)</f>
-        <v>4.1388888888888899E-2</v>
+        <v>4.3055555555555597E-2</v>
       </c>
       <c r="O13" s="4" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC10)</f>
@@ -5158,7 +5166,7 @@
       </c>
       <c r="N14" s="15" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC13)</f>
-        <v>7.3611111111111099E-2</v>
+        <v>7.7222222222222206E-2</v>
       </c>
       <c r="O14" s="4" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC13)</f>
@@ -5215,7 +5223,7 @@
       </c>
       <c r="N16" s="15" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC14)</f>
-        <v>0.250771604938272</v>
+        <v>0.21027777777777801</v>
       </c>
       <c r="O16" s="4" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC14)</f>
@@ -5258,7 +5266,7 @@
       </c>
       <c r="N17" s="15" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC17)</f>
-        <v>0.33101851851851899</v>
+        <v>0.49836248285322399</v>
       </c>
       <c r="O17" s="4" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC17)</f>
@@ -5270,11 +5278,11 @@
       <c r="R17" s="21"/>
       <c r="S17" s="19" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">INDIRECT($W$2&amp;"E"&amp;(A1+1))</f>
-        <v>0.62768730841310738</v>
+        <v>1</v>
       </c>
       <c r="T17" s="19" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDIRECT($W$2&amp;"I"&amp;(A1+1))</f>
-        <v>0.93113146365117727</v>
+        <v>1</v>
       </c>
       <c r="AC17">
         <f t="shared" si="1"/>
@@ -5304,7 +5312,7 @@
       </c>
       <c r="N18" s="15" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC20)</f>
-        <v>0.36722222222222201</v>
+        <v>0.61194444444444496</v>
       </c>
       <c r="O18" s="4" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC20)</f>
@@ -5317,7 +5325,7 @@
       <c r="S18" s="21"/>
       <c r="T18" s="19" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDIRECT($W$2&amp;"M"&amp;(A1+1))</f>
-        <v>0.81216443443662922</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <f t="shared" si="1"/>
@@ -5370,7 +5378,7 @@
       </c>
       <c r="N20" s="15" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC15)</f>
-        <v>0.26641975308642002</v>
+        <v>0.206666666666667</v>
       </c>
       <c r="O20" s="4" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC15)</f>
@@ -5404,7 +5412,7 @@
       </c>
       <c r="N21" s="15" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC18)</f>
-        <v>0.45011574074074101</v>
+        <v>0.44837962962963002</v>
       </c>
       <c r="O21" s="4" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC18)</f>
@@ -5441,7 +5449,7 @@
       </c>
       <c r="N22" s="15" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC21)</f>
-        <v>0.48308641975308603</v>
+        <v>0.61305555555555602</v>
       </c>
       <c r="O22" s="4" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC21)</f>
@@ -5479,11 +5487,11 @@
       <c r="R23" s="21"/>
       <c r="S23" s="19" cm="1">
         <f t="array" aca="1" ref="S23" ca="1">INDIRECT($W$2&amp;"B"&amp;(A1+1))</f>
-        <v>0.2092291028043691</v>
+        <v>0.75803872617218215</v>
       </c>
       <c r="T23" s="19" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDIRECT($W$2&amp;"F"&amp;(A1+1))</f>
-        <v>0.93113146365117727</v>
+        <v>0.4680470308917033</v>
       </c>
       <c r="AC23">
         <f t="shared" si="1"/>
@@ -5513,7 +5521,7 @@
       </c>
       <c r="N24" s="15" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC16)</f>
-        <v>0.17805555555555599</v>
+        <v>0.25666666666666599</v>
       </c>
       <c r="O24" s="4" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC16)</f>
@@ -5526,7 +5534,7 @@
       <c r="S24" s="21"/>
       <c r="T24" s="19" cm="1">
         <f t="array" aca="1" ref="T24" ca="1">INDIRECT($W$2&amp;"J"&amp;(A1+1))</f>
-        <v>0.40608221721831461</v>
+        <v>0.54574462906320653</v>
       </c>
       <c r="AC24">
         <f t="shared" si="1"/>
@@ -5556,7 +5564,7 @@
       </c>
       <c r="N25" s="15" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC19)</f>
-        <v>0.42543209876543198</v>
+        <v>0.61972222222222195</v>
       </c>
       <c r="O25" s="4" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC19)</f>
@@ -5596,7 +5604,7 @@
       </c>
       <c r="N26" s="15" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC22)</f>
-        <v>0.73424382716049397</v>
+        <v>0.60944444444444501</v>
       </c>
       <c r="O26" s="4" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC22)</f>
@@ -5647,7 +5655,7 @@
       </c>
       <c r="N28" s="15" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC23)</f>
-        <v>0.57845679012345697</v>
+        <v>0.44980709876543201</v>
       </c>
       <c r="O28" s="4" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC23)</f>
@@ -5684,7 +5692,7 @@
       </c>
       <c r="N29" s="15" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC26)</f>
-        <v>0.787407407407407</v>
+        <v>0.77277777777777801</v>
       </c>
       <c r="O29" s="4" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC26)</f>
@@ -5724,7 +5732,7 @@
       </c>
       <c r="N30" s="15" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC29)</f>
-        <v>0.63147376543209899</v>
+        <v>0.80833333333333302</v>
       </c>
       <c r="O30" s="4" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC29)</f>
@@ -5810,7 +5818,7 @@
       </c>
       <c r="N32" s="15" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC24)</f>
-        <v>0.89070644718792902</v>
+        <v>0.34081790123456801</v>
       </c>
       <c r="O32" s="4" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC24)</f>
@@ -5845,19 +5853,19 @@
       <c r="C33" s="27"/>
       <c r="F33" s="10" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDIRECT($W$1&amp;"B"&amp;(A1+1))</f>
-        <v>0.75315347066540494</v>
+        <v>0.32464163901238358</v>
       </c>
       <c r="G33" s="10" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDIRECT($W$1&amp;"C"&amp;(A1+1))</f>
-        <v>1.964781263498617</v>
+        <v>1.948595478108653</v>
       </c>
       <c r="H33" s="10" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">INDIRECT($W$1&amp;"D"&amp;(A1+1))</f>
-        <v>340.4222801528482</v>
+        <v>335.20622671539257</v>
       </c>
       <c r="I33" s="11" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">INDIRECT($W$1&amp;"E"&amp;(A1+1))</f>
-        <v>0.46949097154904418</v>
+        <v>0.71735667889678756</v>
       </c>
       <c r="K33" s="4">
         <v>3</v>
@@ -5870,7 +5878,7 @@
       </c>
       <c r="N33" s="15" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC27)</f>
-        <v>0.49685185185185199</v>
+        <v>0.85324074074074097</v>
       </c>
       <c r="O33" s="4" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC27)</f>
@@ -5904,7 +5912,7 @@
       </c>
       <c r="N34" s="15" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC30)</f>
-        <v>0.73907407407407399</v>
+        <v>0.70972222222222203</v>
       </c>
       <c r="O34" s="4" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC30)</f>
@@ -5954,21 +5962,23 @@
       <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="E36" s="18" t="s">
         <v>82</v>
       </c>
       <c r="F36" s="20" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDIRECT($W$1&amp;"G"&amp;(A1+1))</f>
-        <v>0.48306383531398139</v>
+        <v>0.51298298590817581</v>
       </c>
       <c r="G36" s="15" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDIRECT($W$1&amp;"I"&amp;(A1+1))</f>
-        <v>0.44138012442968833</v>
+        <v>0.47198962878305412</v>
       </c>
       <c r="H36" s="15" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">INDIRECT($W$1&amp;"J"&amp;(A1+1))</f>
-        <v>0.52474754619827446</v>
+        <v>0.55397634303329757</v>
       </c>
       <c r="K36" s="4">
         <v>3</v>
@@ -5981,7 +5991,7 @@
       </c>
       <c r="N36" s="15" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC25)</f>
-        <v>0.73046296296296298</v>
+        <v>0.32370370370370399</v>
       </c>
       <c r="O36" s="4" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC25)</f>
@@ -6009,15 +6019,15 @@
       </c>
       <c r="F37" s="20" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDIRECT($W$1&amp;"N"&amp;(A1+1))</f>
-        <v>0.52629391518929802</v>
+        <v>0.50369463926228975</v>
       </c>
       <c r="G37" s="15" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDIRECT($W$1&amp;"P"&amp;(A1+1))</f>
-        <v>0.48506732706609113</v>
+        <v>0.46250061961877659</v>
       </c>
       <c r="H37" s="15" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">INDIRECT($W$1&amp;"Q"&amp;(A1+1))</f>
-        <v>0.56752050331250492</v>
+        <v>0.54488865890580285</v>
       </c>
       <c r="K37" s="4">
         <v>3</v>
@@ -6030,7 +6040,7 @@
       </c>
       <c r="N37" s="15" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC28)</f>
-        <v>0.695046296296296</v>
+        <v>0.93984567901234595</v>
       </c>
       <c r="O37" s="4" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC28)</f>
@@ -6058,15 +6068,15 @@
       </c>
       <c r="F38" s="20" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">INDIRECT($W$1&amp;"U"&amp;(A1+1))</f>
-        <v>0.49064224949672047</v>
+        <v>0.48332237482953427</v>
       </c>
       <c r="G38" s="15" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">INDIRECT($W$1&amp;"W"&amp;(A1+1))</f>
-        <v>0.44429680467807359</v>
+        <v>0.43673041153070002</v>
       </c>
       <c r="H38" s="15" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">INDIRECT($W$1&amp;"X"&amp;(A1+1))</f>
-        <v>0.53698769431536753</v>
+        <v>0.52991433812836863</v>
       </c>
       <c r="K38" s="4">
         <v>3</v>
@@ -6079,7 +6089,7 @@
       </c>
       <c r="N38" s="15" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC31)</f>
-        <v>0.69126543209876501</v>
+        <v>0.70345679012345697</v>
       </c>
       <c r="O38" s="4" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC31)</f>
@@ -6139,7 +6149,7 @@
       </c>
       <c r="N40" s="15" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC32)</f>
-        <v>0.97996913580246903</v>
+        <v>0.48292438271604998</v>
       </c>
       <c r="O40" s="4" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC32)</f>
@@ -6171,11 +6181,11 @@
       </c>
       <c r="G41" s="20" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDIRECT($W$1&amp;"K"&amp;(A1+1))</f>
-        <v>7.252064204175813</v>
+        <v>11.118869727701471</v>
       </c>
       <c r="H41" s="15" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">INDIRECT($W$1&amp;"L"&amp;(A1+1))</f>
-        <v>3.9353445878778008</v>
+        <v>8.1893679066267318</v>
       </c>
       <c r="K41" s="4">
         <v>4</v>
@@ -6188,7 +6198,7 @@
       </c>
       <c r="N41" s="15" cm="1">
         <f t="array" aca="1" ref="N41" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC35)</f>
-        <v>0.75373799725651602</v>
+        <v>0.93117283950617302</v>
       </c>
       <c r="O41" s="4" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC35)</f>
@@ -6213,11 +6223,11 @@
       </c>
       <c r="G42" s="20" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDIRECT($W$1&amp;"R"&amp;(A1+1))</f>
-        <v>7.7511705582531993</v>
+        <v>11.08222172061196</v>
       </c>
       <c r="H42" s="15" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">INDIRECT($W$1&amp;"S"&amp;(A1+1))</f>
-        <v>3.76901891423985</v>
+        <v>8.1482679341286488</v>
       </c>
       <c r="K42" s="4">
         <v>4</v>
@@ -6230,7 +6240,7 @@
       </c>
       <c r="N42" s="15" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC38)</f>
-        <v>0.56655864197530903</v>
+        <v>0.793950617283951</v>
       </c>
       <c r="O42" s="4" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC38)</f>
@@ -6255,11 +6265,11 @@
       </c>
       <c r="G43" s="20" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDIRECT($W$1&amp;"Y"&amp;(A1+1))</f>
-        <v>7.025543024755855</v>
+        <v>11.64387343633452</v>
       </c>
       <c r="H43" s="15" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">INDIRECT($W$1&amp;"Z"&amp;(A1+1))</f>
-        <v>4.3005419335547082</v>
+        <v>10.414450096878371</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
@@ -6282,7 +6292,7 @@
       </c>
       <c r="N44" s="15" cm="1">
         <f t="array" aca="1" ref="N44" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC33)</f>
-        <v>0.96327160493827202</v>
+        <v>0.48558813443072701</v>
       </c>
       <c r="O44" s="4" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC33)</f>
@@ -6309,7 +6319,7 @@
       </c>
       <c r="N45" s="15" cm="1">
         <f t="array" aca="1" ref="N45" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC36)</f>
-        <v>0.69425925925925902</v>
+        <v>0.86941358024691395</v>
       </c>
       <c r="O45" s="4" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC36)</f>
@@ -6336,7 +6346,7 @@
       </c>
       <c r="N46" s="15" cm="1">
         <f t="array" aca="1" ref="N46" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC39)</f>
-        <v>0.63541666666666696</v>
+        <v>0.78950617283950597</v>
       </c>
       <c r="O46" s="4" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC39)</f>
@@ -6373,7 +6383,7 @@
       </c>
       <c r="N48" s="15" cm="1">
         <f t="array" aca="1" ref="N48" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC34)</f>
-        <v>0.92950617283950598</v>
+        <v>0.42617283950617302</v>
       </c>
       <c r="O48" s="4" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC34)</f>
@@ -6392,7 +6402,7 @@
       </c>
       <c r="N49" s="15" cm="1">
         <f t="array" aca="1" ref="N49" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC37)</f>
-        <v>0.62445216049382701</v>
+        <v>0.97447530864197596</v>
       </c>
       <c r="O49" s="4" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC37)</f>
@@ -6411,7 +6421,7 @@
       </c>
       <c r="N50" s="15" cm="1">
         <f t="array" aca="1" ref="N50" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC40)</f>
-        <v>0.72785493827160497</v>
+        <v>0.81117283950617303</v>
       </c>
       <c r="O50" s="4" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC40)</f>

--- a/results/rankFD(2021-02-08)_2.xlsx
+++ b/results/rankFD(2021-02-08)_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrienpajon/Documents/all.nosync/git_repo/RESNA2021_vibration_analysis/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFFBE83-C89C-EE43-9715-BCA525CFA8B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F5BCB2-71F2-0E4C-93A8-3CB88846D62E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="460" windowWidth="26520" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="150">
   <si>
     <t>a</t>
   </si>
@@ -548,6 +548,12 @@
   <si>
     <t>MTiXsens signal energy in BackSeat along z-axis</t>
   </si>
+  <si>
+    <t>MTiXsens signal energy in Seat along x-y-axis</t>
+  </si>
+  <si>
+    <t>MTiXsens signal energy in Seat along z-axis</t>
+  </si>
 </sst>
 </file>
 
@@ -919,7 +925,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>MTiXsens signal energy in BackSeat along z-axis</c:v>
+              <c:v>MTiXsens signal energy in Seat along x-y-axis</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1200,31 +1206,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.7500000000000003E-2</c:v>
+                  <c:v>0.109444444444444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.230833333333333</c:v>
+                  <c:v>0.31051697530864197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30341049382716101</c:v>
+                  <c:v>0.466211419753086</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11555555555555599</c:v>
+                  <c:v>4.1944444444444402E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17749999999999999</c:v>
+                  <c:v>0.40758487654321002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40043209876543201</c:v>
+                  <c:v>0.66342592592592597</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.38888888888889E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3055555555555597E-2</c:v>
+                  <c:v>0.12194444444444399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7222222222222206E-2</c:v>
+                  <c:v>0.223672839506173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,31 +1479,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.21027777777777801</c:v>
+                  <c:v>0.18194444444444399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49836248285322399</c:v>
+                  <c:v>0.39217249657064501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61194444444444496</c:v>
+                  <c:v>0.65500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.206666666666667</c:v>
+                  <c:v>0.13861111111111099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44837962962963002</c:v>
+                  <c:v>0.422260802469136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61305555555555602</c:v>
+                  <c:v>0.57256944444444502</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25666666666666599</c:v>
+                  <c:v>7.6111111111111102E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61972222222222195</c:v>
+                  <c:v>0.365416666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60944444444444501</c:v>
+                  <c:v>0.76836419753086405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1746,31 +1752,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.44980709876543201</c:v>
+                  <c:v>0.368726851851852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77277777777777801</c:v>
+                  <c:v>0.72657407407407404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80833333333333302</c:v>
+                  <c:v>0.948888888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34081790123456801</c:v>
+                  <c:v>0.30558984910836801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85324074074074097</c:v>
+                  <c:v>0.60562499999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70972222222222203</c:v>
+                  <c:v>0.84626543209876504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32370370370370399</c:v>
+                  <c:v>0.21891975308642</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93984567901234595</c:v>
+                  <c:v>0.63067901234567902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70345679012345697</c:v>
+                  <c:v>0.85320987654321001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,31 +2025,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.48292438271604998</c:v>
+                  <c:v>0.60700617283950598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93117283950617302</c:v>
+                  <c:v>0.79382716049382696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.793950617283951</c:v>
+                  <c:v>0.98194444444444495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48558813443072701</c:v>
+                  <c:v>0.56604938271604999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86941358024691395</c:v>
+                  <c:v>0.73851851851851902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78950617283950597</c:v>
+                  <c:v>0.93916666666666704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42617283950617302</c:v>
+                  <c:v>0.357492283950617</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97447530864197596</c:v>
+                  <c:v>0.68987654320987701</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81117283950617303</c:v>
+                  <c:v>0.89055555555555599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4404,8 +4410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A71EA7-FA75-4BEA-B4BF-9C96E88656D2}">
   <dimension ref="A1:AM50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4421,19 +4427,19 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B1" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">INDIRECT("B"&amp;(ROW(A3)+A1-1))&amp;"!"</f>
-        <v>mtixsens_5_ES_vert!</v>
+        <v>mtixsens_1_ES_horiz!</v>
       </c>
       <c r="C1" s="8" t="str">
         <f ca="1">INDIRECT("C"&amp;(ROW(B3)+A1-1))&amp;"!"</f>
-        <v>MTiXsens signal energy in BackSeat along z-axis!</v>
+        <v>MTiXsens signal energy in Seat along x-y-axis!</v>
       </c>
       <c r="E1" t="str">
         <f ca="1">MID(C1,1,LEN(C1)-1)</f>
-        <v>MTiXsens signal energy in BackSeat along z-axis</v>
+        <v>MTiXsens signal energy in Seat along x-y-axis</v>
       </c>
       <c r="W1" t="s">
         <v>110</v>
@@ -4481,7 +4487,9 @@
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="27" t="s">
+        <v>148</v>
+      </c>
       <c r="E3" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT($B$1&amp;X$3&amp;$W4)</f>
         <v>Effects</v>
@@ -4560,22 +4568,24 @@
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>149</v>
+      </c>
       <c r="E4" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDIRECT($B$1&amp;X$3&amp;$W5)</f>
         <v>obstacle_H</v>
       </c>
       <c r="F4" s="10" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W5)</f>
-        <v>1755.59664101048</v>
+        <v>1160.85872271173</v>
       </c>
       <c r="G4" s="10" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W5)</f>
-        <v>2.7099070436705599</v>
+        <v>2.7748905997784301</v>
       </c>
       <c r="H4" s="10" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W5)</f>
-        <v>98.341868393872403</v>
+        <v>147.89369341173801</v>
       </c>
       <c r="I4" s="11" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W5)</f>
@@ -4592,7 +4602,7 @@
       </c>
       <c r="N4" s="15" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC5)</f>
-        <v>9.7500000000000003E-2</v>
+        <v>0.109444444444444</v>
       </c>
       <c r="O4" s="4" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC5)</f>
@@ -4629,15 +4639,15 @@
       </c>
       <c r="F5" s="10" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W6)</f>
-        <v>1271.0745622770301</v>
+        <v>2074.0938956342402</v>
       </c>
       <c r="G5" s="10" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W6)</f>
-        <v>1.98122703036079</v>
+        <v>1.7465538490945001</v>
       </c>
       <c r="H5" s="10" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W6)</f>
-        <v>98.341868393872502</v>
+        <v>147.89369341173801</v>
       </c>
       <c r="I5" s="11" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W6)</f>
@@ -4654,7 +4664,7 @@
       </c>
       <c r="N5" s="15" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC8)</f>
-        <v>0.230833333333333</v>
+        <v>0.31051697530864197</v>
       </c>
       <c r="O5" s="4" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC8)</f>
@@ -4666,11 +4676,11 @@
       <c r="R5" s="21"/>
       <c r="S5" s="15">
         <f ca="1">G42-G41</f>
-        <v>-3.664800708951077E-2</v>
+        <v>-1.2503626151646809</v>
       </c>
       <c r="T5" s="15">
         <f ca="1">G43-G41</f>
-        <v>0.52500370863304902</v>
+        <v>-2.0607077506971003</v>
       </c>
       <c r="W5">
         <v>41</v>
@@ -4698,19 +4708,19 @@
       </c>
       <c r="F6" s="10" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W7)</f>
-        <v>91.348558431911002</v>
+        <v>19.709800918373599</v>
       </c>
       <c r="G6" s="10" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W7)</f>
-        <v>4.7254344812353803</v>
+        <v>4.6279773295922304</v>
       </c>
       <c r="H6" s="10" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W7)</f>
-        <v>98.341868393872403</v>
+        <v>147.89369341173801</v>
       </c>
       <c r="I6" s="11" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W7)</f>
-        <v>0</v>
+        <v>2.6756374893466301E-14</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
@@ -4723,7 +4733,7 @@
       </c>
       <c r="N6" s="15" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC11)</f>
-        <v>0.30341049382716101</v>
+        <v>0.466211419753086</v>
       </c>
       <c r="O6" s="4" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC11)</f>
@@ -4736,7 +4746,7 @@
       <c r="S6" s="21"/>
       <c r="T6" s="15">
         <f ca="1">G43-G42</f>
-        <v>0.56165171572255979</v>
+        <v>-0.81034513553241938</v>
       </c>
       <c r="W6">
         <v>42</v>
@@ -4779,19 +4789,19 @@
       </c>
       <c r="F7" s="10" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W8)</f>
-        <v>9.7361942969143804</v>
+        <v>119.334029272964</v>
       </c>
       <c r="G7" s="10" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W8)</f>
-        <v>1.9209783236067799</v>
+        <v>1.9791195510569</v>
       </c>
       <c r="H7" s="10" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W8)</f>
-        <v>98.341868393872502</v>
+        <v>147.89369341173801</v>
       </c>
       <c r="I7" s="11" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W8)</f>
-        <v>1.71528453046133E-4</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="18" t="s">
         <v>86</v>
@@ -4842,15 +4852,15 @@
       </c>
       <c r="F8" s="10" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W9)</f>
-        <v>34.582115881188301</v>
+        <v>37.366240517513198</v>
       </c>
       <c r="G8" s="10" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W9)</f>
-        <v>4.7142155362444402</v>
+        <v>5.2729168291489499</v>
       </c>
       <c r="H8" s="10" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W9)</f>
-        <v>98.341868393872403</v>
+        <v>147.89369341173801</v>
       </c>
       <c r="I8" s="11" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W9)</f>
@@ -4867,7 +4877,7 @@
       </c>
       <c r="N8" s="15" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC6)</f>
-        <v>0.11555555555555599</v>
+        <v>4.1944444444444402E-2</v>
       </c>
       <c r="O8" s="4" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC6)</f>
@@ -4916,19 +4926,19 @@
       </c>
       <c r="F9" s="10" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W10)</f>
-        <v>17.245601571866899</v>
+        <v>4.1399842478965896</v>
       </c>
       <c r="G9" s="10" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W10)</f>
-        <v>3.5251970347612702</v>
+        <v>3.4089867747696099</v>
       </c>
       <c r="H9" s="10" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W10)</f>
-        <v>98.341868393872403</v>
+        <v>147.89369341173801</v>
       </c>
       <c r="I9" s="11" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W10)</f>
-        <v>5.5568971646380295E-10</v>
+        <v>5.3331908485553204E-3</v>
       </c>
       <c r="K9" s="4">
         <v>1</v>
@@ -4941,7 +4951,7 @@
       </c>
       <c r="N9" s="15" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC9)</f>
-        <v>0.17749999999999999</v>
+        <v>0.40758487654321002</v>
       </c>
       <c r="O9" s="4" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC9)</f>
@@ -4976,19 +4986,19 @@
       </c>
       <c r="F10" s="10" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDIRECT($B$1&amp;Y$3&amp;$W11)</f>
-        <v>9.4175008569928096</v>
+        <v>19.053942482086001</v>
       </c>
       <c r="G10" s="10" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT($B$1&amp;Z$3&amp;$W11)</f>
-        <v>7.2335814478675999</v>
+        <v>8.45491308675658</v>
       </c>
       <c r="H10" s="10" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDIRECT($B$1&amp;AA$3&amp;$W11)</f>
-        <v>98.341868393872403</v>
+        <v>147.89369341173801</v>
       </c>
       <c r="I10" s="11" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">INDIRECT($B$1&amp;AB$3&amp;$W11)</f>
-        <v>4.6475925330469198E-9</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <v>1</v>
@@ -5001,7 +5011,7 @@
       </c>
       <c r="N10" s="15" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC12)</f>
-        <v>0.40043209876543201</v>
+        <v>0.66342592592592597</v>
       </c>
       <c r="O10" s="4" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC12)</f>
@@ -5044,11 +5054,11 @@
       <c r="R11" s="21"/>
       <c r="S11" s="15" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDIRECT($W$2&amp;"C"&amp;(A1+1))</f>
-        <v>0.50584453535943896</v>
+        <v>0.51008182349503217</v>
       </c>
       <c r="T11" s="15" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDIRECT($W$2&amp;"G"&amp;(A1+1))</f>
-        <v>0.51362994350282487</v>
+        <v>0.55536723163841806</v>
       </c>
       <c r="W11">
         <v>47</v>
@@ -5096,7 +5106,7 @@
       <c r="S12" s="21"/>
       <c r="T12" s="15" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDIRECT($W$2&amp;"K"&amp;(A1+1))</f>
-        <v>0.51138649425287352</v>
+        <v>0.5437140804597701</v>
       </c>
       <c r="AC12">
         <f t="shared" si="1"/>
@@ -5126,7 +5136,7 @@
       </c>
       <c r="N13" s="15" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC10)</f>
-        <v>4.3055555555555597E-2</v>
+        <v>0.12194444444444399</v>
       </c>
       <c r="O13" s="4" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC10)</f>
@@ -5166,7 +5176,7 @@
       </c>
       <c r="N14" s="15" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC13)</f>
-        <v>7.7222222222222206E-2</v>
+        <v>0.223672839506173</v>
       </c>
       <c r="O14" s="4" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC13)</f>
@@ -5223,7 +5233,7 @@
       </c>
       <c r="N16" s="15" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC14)</f>
-        <v>0.21027777777777801</v>
+        <v>0.18194444444444399</v>
       </c>
       <c r="O16" s="4" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC14)</f>
@@ -5266,7 +5276,7 @@
       </c>
       <c r="N17" s="15" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC17)</f>
-        <v>0.49836248285322399</v>
+        <v>0.39217249657064501</v>
       </c>
       <c r="O17" s="4" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC17)</f>
@@ -5278,11 +5288,11 @@
       <c r="R17" s="21"/>
       <c r="S17" s="19" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">INDIRECT($W$2&amp;"E"&amp;(A1+1))</f>
-        <v>1</v>
+        <v>0.59495999877616179</v>
       </c>
       <c r="T17" s="19" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDIRECT($W$2&amp;"I"&amp;(A1+1))</f>
-        <v>1</v>
+        <v>8.8749352357891942E-3</v>
       </c>
       <c r="AC17">
         <f t="shared" si="1"/>
@@ -5312,7 +5322,7 @@
       </c>
       <c r="N18" s="15" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC20)</f>
-        <v>0.61194444444444496</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="O18" s="4" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC20)</f>
@@ -5325,7 +5335,7 @@
       <c r="S18" s="21"/>
       <c r="T18" s="19" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDIRECT($W$2&amp;"M"&amp;(A1+1))</f>
-        <v>1</v>
+        <v>3.9649523099155148E-2</v>
       </c>
       <c r="AC18">
         <f t="shared" si="1"/>
@@ -5378,7 +5388,7 @@
       </c>
       <c r="N20" s="15" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC15)</f>
-        <v>0.206666666666667</v>
+        <v>0.13861111111111099</v>
       </c>
       <c r="O20" s="4" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC15)</f>
@@ -5412,7 +5422,7 @@
       </c>
       <c r="N21" s="15" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC18)</f>
-        <v>0.44837962962963002</v>
+        <v>0.422260802469136</v>
       </c>
       <c r="O21" s="4" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC18)</f>
@@ -5449,7 +5459,7 @@
       </c>
       <c r="N22" s="15" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC21)</f>
-        <v>0.61305555555555602</v>
+        <v>0.57256944444444502</v>
       </c>
       <c r="O22" s="4" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC21)</f>
@@ -5487,11 +5497,11 @@
       <c r="R23" s="21"/>
       <c r="S23" s="19" cm="1">
         <f t="array" aca="1" ref="S23" ca="1">INDIRECT($W$2&amp;"B"&amp;(A1+1))</f>
-        <v>0.75803872617218215</v>
+        <v>0.59495999877616179</v>
       </c>
       <c r="T23" s="19" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDIRECT($W$2&amp;"F"&amp;(A1+1))</f>
-        <v>0.4680470308917033</v>
+        <v>2.9583117452630652E-3</v>
       </c>
       <c r="AC23">
         <f t="shared" si="1"/>
@@ -5521,7 +5531,7 @@
       </c>
       <c r="N24" s="15" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC16)</f>
-        <v>0.25666666666666599</v>
+        <v>7.6111111111111102E-2</v>
       </c>
       <c r="O24" s="4" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC16)</f>
@@ -5534,7 +5544,7 @@
       <c r="S24" s="21"/>
       <c r="T24" s="19" cm="1">
         <f t="array" aca="1" ref="T24" ca="1">INDIRECT($W$2&amp;"J"&amp;(A1+1))</f>
-        <v>0.54574462906320653</v>
+        <v>1.9824761549577571E-2</v>
       </c>
       <c r="AC24">
         <f t="shared" si="1"/>
@@ -5564,7 +5574,7 @@
       </c>
       <c r="N25" s="15" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC19)</f>
-        <v>0.61972222222222195</v>
+        <v>0.365416666666667</v>
       </c>
       <c r="O25" s="4" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC19)</f>
@@ -5604,7 +5614,7 @@
       </c>
       <c r="N26" s="15" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC22)</f>
-        <v>0.60944444444444501</v>
+        <v>0.76836419753086405</v>
       </c>
       <c r="O26" s="4" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC22)</f>
@@ -5655,7 +5665,7 @@
       </c>
       <c r="N28" s="15" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC23)</f>
-        <v>0.44980709876543201</v>
+        <v>0.368726851851852</v>
       </c>
       <c r="O28" s="4" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC23)</f>
@@ -5692,7 +5702,7 @@
       </c>
       <c r="N29" s="15" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC26)</f>
-        <v>0.77277777777777801</v>
+        <v>0.72657407407407404</v>
       </c>
       <c r="O29" s="4" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC26)</f>
@@ -5732,7 +5742,7 @@
       </c>
       <c r="N30" s="15" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC29)</f>
-        <v>0.80833333333333302</v>
+        <v>0.948888888888889</v>
       </c>
       <c r="O30" s="4" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC29)</f>
@@ -5818,7 +5828,7 @@
       </c>
       <c r="N32" s="15" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC24)</f>
-        <v>0.34081790123456801</v>
+        <v>0.30558984910836801</v>
       </c>
       <c r="O32" s="4" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC24)</f>
@@ -5853,19 +5863,19 @@
       <c r="C33" s="27"/>
       <c r="F33" s="10" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDIRECT($W$1&amp;"B"&amp;(A1+1))</f>
-        <v>0.32464163901238358</v>
+        <v>4.8916278874775854</v>
       </c>
       <c r="G33" s="10" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDIRECT($W$1&amp;"C"&amp;(A1+1))</f>
-        <v>1.948595478108653</v>
+        <v>1.988581122300068</v>
       </c>
       <c r="H33" s="10" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">INDIRECT($W$1&amp;"D"&amp;(A1+1))</f>
-        <v>335.20622671539257</v>
+        <v>347.9505339342806</v>
       </c>
       <c r="I33" s="11" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">INDIRECT($W$1&amp;"E"&amp;(A1+1))</f>
-        <v>0.71735667889678756</v>
+        <v>8.1465602429287021E-3</v>
       </c>
       <c r="K33" s="4">
         <v>3</v>
@@ -5878,7 +5888,7 @@
       </c>
       <c r="N33" s="15" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC27)</f>
-        <v>0.85324074074074097</v>
+        <v>0.60562499999999997</v>
       </c>
       <c r="O33" s="4" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC27)</f>
@@ -5912,7 +5922,7 @@
       </c>
       <c r="N34" s="15" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC30)</f>
-        <v>0.70972222222222203</v>
+        <v>0.84626543209876504</v>
       </c>
       <c r="O34" s="4" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC30)</f>
@@ -5970,15 +5980,15 @@
       </c>
       <c r="F36" s="20" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDIRECT($W$1&amp;"G"&amp;(A1+1))</f>
-        <v>0.51298298590817581</v>
+        <v>0.54363270342230008</v>
       </c>
       <c r="G36" s="15" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDIRECT($W$1&amp;"I"&amp;(A1+1))</f>
-        <v>0.47198962878305412</v>
+        <v>0.5021420998022047</v>
       </c>
       <c r="H36" s="15" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">INDIRECT($W$1&amp;"J"&amp;(A1+1))</f>
-        <v>0.55397634303329757</v>
+        <v>0.58512330704239546</v>
       </c>
       <c r="K36" s="4">
         <v>3</v>
@@ -5991,7 +6001,7 @@
       </c>
       <c r="N36" s="15" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC25)</f>
-        <v>0.32370370370370399</v>
+        <v>0.21891975308642</v>
       </c>
       <c r="O36" s="4" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC25)</f>
@@ -6019,15 +6029,15 @@
       </c>
       <c r="F37" s="20" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDIRECT($W$1&amp;"N"&amp;(A1+1))</f>
-        <v>0.50369463926228975</v>
+        <v>0.52242150464315862</v>
       </c>
       <c r="G37" s="15" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDIRECT($W$1&amp;"P"&amp;(A1+1))</f>
-        <v>0.46250061961877659</v>
+        <v>0.48100192322705509</v>
       </c>
       <c r="H37" s="15" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">INDIRECT($W$1&amp;"Q"&amp;(A1+1))</f>
-        <v>0.54488865890580285</v>
+        <v>0.56384108605926209</v>
       </c>
       <c r="K37" s="4">
         <v>3</v>
@@ -6040,7 +6050,7 @@
       </c>
       <c r="N37" s="15" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC28)</f>
-        <v>0.93984567901234595</v>
+        <v>0.63067901234567902</v>
       </c>
       <c r="O37" s="4" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC28)</f>
@@ -6068,15 +6078,15 @@
       </c>
       <c r="F38" s="20" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">INDIRECT($W$1&amp;"U"&amp;(A1+1))</f>
-        <v>0.48332237482953427</v>
+        <v>0.43394579193454119</v>
       </c>
       <c r="G38" s="15" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">INDIRECT($W$1&amp;"W"&amp;(A1+1))</f>
-        <v>0.43673041153070002</v>
+        <v>0.39020454241667618</v>
       </c>
       <c r="H38" s="15" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">INDIRECT($W$1&amp;"X"&amp;(A1+1))</f>
-        <v>0.52991433812836863</v>
+        <v>0.4776870414524062</v>
       </c>
       <c r="K38" s="4">
         <v>3</v>
@@ -6089,7 +6099,7 @@
       </c>
       <c r="N38" s="15" cm="1">
         <f t="array" aca="1" ref="N38" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC31)</f>
-        <v>0.70345679012345697</v>
+        <v>0.85320987654321001</v>
       </c>
       <c r="O38" s="4" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC31)</f>
@@ -6149,7 +6159,7 @@
       </c>
       <c r="N40" s="15" cm="1">
         <f t="array" aca="1" ref="N40" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC32)</f>
-        <v>0.48292438271604998</v>
+        <v>0.60700617283950598</v>
       </c>
       <c r="O40" s="4" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC32)</f>
@@ -6181,11 +6191,11 @@
       </c>
       <c r="G41" s="20" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDIRECT($W$1&amp;"K"&amp;(A1+1))</f>
-        <v>11.118869727701471</v>
+        <v>5.5435729007557804</v>
       </c>
       <c r="H41" s="15" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">INDIRECT($W$1&amp;"L"&amp;(A1+1))</f>
-        <v>8.1893679066267318</v>
+        <v>5.7695573475888411</v>
       </c>
       <c r="K41" s="4">
         <v>4</v>
@@ -6198,7 +6208,7 @@
       </c>
       <c r="N41" s="15" cm="1">
         <f t="array" aca="1" ref="N41" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC35)</f>
-        <v>0.93117283950617302</v>
+        <v>0.79382716049382696</v>
       </c>
       <c r="O41" s="4" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC35)</f>
@@ -6223,11 +6233,11 @@
       </c>
       <c r="G42" s="20" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDIRECT($W$1&amp;"R"&amp;(A1+1))</f>
-        <v>11.08222172061196</v>
+        <v>4.2932102855910994</v>
       </c>
       <c r="H42" s="15" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">INDIRECT($W$1&amp;"S"&amp;(A1+1))</f>
-        <v>8.1482679341286488</v>
+        <v>3.1164054663907792</v>
       </c>
       <c r="K42" s="4">
         <v>4</v>
@@ -6240,7 +6250,7 @@
       </c>
       <c r="N42" s="15" cm="1">
         <f t="array" aca="1" ref="N42" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC38)</f>
-        <v>0.793950617283951</v>
+        <v>0.98194444444444495</v>
       </c>
       <c r="O42" s="4" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC38)</f>
@@ -6265,11 +6275,11 @@
       </c>
       <c r="G43" s="20" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDIRECT($W$1&amp;"Y"&amp;(A1+1))</f>
-        <v>11.64387343633452</v>
+        <v>3.48286515005868</v>
       </c>
       <c r="H43" s="15" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">INDIRECT($W$1&amp;"Z"&amp;(A1+1))</f>
-        <v>10.414450096878371</v>
+        <v>2.8156944194981461</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
@@ -6292,7 +6302,7 @@
       </c>
       <c r="N44" s="15" cm="1">
         <f t="array" aca="1" ref="N44" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC33)</f>
-        <v>0.48558813443072701</v>
+        <v>0.56604938271604999</v>
       </c>
       <c r="O44" s="4" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC33)</f>
@@ -6319,7 +6329,7 @@
       </c>
       <c r="N45" s="15" cm="1">
         <f t="array" aca="1" ref="N45" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC36)</f>
-        <v>0.86941358024691395</v>
+        <v>0.73851851851851902</v>
       </c>
       <c r="O45" s="4" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC36)</f>
@@ -6346,7 +6356,7 @@
       </c>
       <c r="N46" s="15" cm="1">
         <f t="array" aca="1" ref="N46" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC39)</f>
-        <v>0.78950617283950597</v>
+        <v>0.93916666666666704</v>
       </c>
       <c r="O46" s="4" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC39)</f>
@@ -6383,7 +6393,7 @@
       </c>
       <c r="N48" s="15" cm="1">
         <f t="array" aca="1" ref="N48" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC34)</f>
-        <v>0.42617283950617302</v>
+        <v>0.357492283950617</v>
       </c>
       <c r="O48" s="4" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC34)</f>
@@ -6402,7 +6412,7 @@
       </c>
       <c r="N49" s="15" cm="1">
         <f t="array" aca="1" ref="N49" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC37)</f>
-        <v>0.97447530864197596</v>
+        <v>0.68987654320987701</v>
       </c>
       <c r="O49" s="4" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC37)</f>
@@ -6421,7 +6431,7 @@
       </c>
       <c r="N50" s="15" cm="1">
         <f t="array" aca="1" ref="N50" ca="1">INDIRECT($B$1&amp;AD$3&amp;$AC40)</f>
-        <v>0.81117283950617303</v>
+        <v>0.89055555555555599</v>
       </c>
       <c r="O50" s="4" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDIRECT($B$1&amp;AE$3&amp;$AC40)</f>
